--- a/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-07T08:59:22+02:00</t>
+    <t>2025-09-28T17:18:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-28T17:18:13+02:00</t>
+    <t>2025-09-29T11:26:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:26:30+02:00</t>
+    <t>2025-09-29T11:54:59+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T11:54:59+02:00</t>
+    <t>2025-09-29T13:11:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.1</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:11:32+02:00</t>
+    <t>2025-09-29T13:18:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
+++ b/ExampleIG/output/StructureDefinition-fristDatoForHelsehjelp.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-29T13:18:42+02:00</t>
+    <t>2025-10-01T13:36:52+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
